--- a/biology/Zoologie/Haliplus_mucronatus/Haliplus_mucronatus.xlsx
+++ b/biology/Zoologie/Haliplus_mucronatus/Haliplus_mucronatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haliplus mucronatus est une espèce de petits insectes coléoptères aquatiques de la famille des Haliplidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Corps très convexe, long d'environ 4 mm, d'un brun-rouge assez uniforme.
 </t>
@@ -542,7 +556,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, il est visible de mars à novembre. Comme d'autres espèces de son genre, il nage avec difficulté (ses tarses postérieurs ne sont pas élargis en rames) pour gagner les plantes aquatiques dans lesquelles il peut se dissimuler. Comme sa larve, il se nourrit d'algues.
 </t>
@@ -573,9 +589,11 @@
           <t>Espèce proche</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haliplus fulvus (Fabricius, 1801). Ses élytres sont aussi ornés de rangées de points[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haliplus fulvus (Fabricius, 1801). Ses élytres sont aussi ornés de rangées de points.
 Sur les autres projets Wikimedia :
 Haliplus mucronatus, sur Wikimedia Commons
 </t>
